--- a/Leaf-pinassign/Leaf-pinassign.xlsx
+++ b/Leaf-pinassign/Leaf-pinassign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\OneDrive\ドキュメント\2025年\20250226_pinアサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07695B-9038-4041-92BB-22F481DC15FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D5A2F-2015-4341-A0B0-04A0DBFCFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Leaf" sheetId="48" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="439">
   <si>
     <t>PC4</t>
     <phoneticPr fontId="1"/>
@@ -6240,9 +6240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912AF393-32B7-4957-91A3-8D2F702969F7}">
   <dimension ref="B1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5" outlineLevelCol="1"/>
   <cols>
@@ -7357,9 +7355,7 @@
       <c r="Y19" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="Z19" s="119" t="s">
-        <v>70</v>
-      </c>
+      <c r="Z19" s="120"/>
       <c r="AA19" s="72"/>
       <c r="AN19" s="106"/>
     </row>
@@ -8017,9 +8013,7 @@
       <c r="Y33" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="Z33" s="119" t="s">
-        <v>71</v>
-      </c>
+      <c r="Z33" s="120"/>
       <c r="AA33" s="72"/>
     </row>
     <row r="34" spans="2:27" ht="20.25" thickTop="1"/>
@@ -16892,7 +16886,7 @@
   <dimension ref="B1:AA87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+      <selection activeCell="X60" sqref="X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -17004,9 +16998,7 @@
       <c r="U5" s="11"/>
       <c r="V5" s="262"/>
       <c r="W5" s="12"/>
-      <c r="X5" s="313" t="s">
-        <v>70</v>
-      </c>
+      <c r="X5" s="307"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="7"/>
@@ -17032,7 +17024,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="263"/>
       <c r="W6" s="12"/>
-      <c r="X6" s="314"/>
+      <c r="X6" s="308"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="7"/>
@@ -18592,9 +18584,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
-      <c r="X60" s="49" t="s">
-        <v>71</v>
-      </c>
+      <c r="X60" s="9"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="324"/>
       <c r="AA60" s="44"/>
@@ -18644,7 +18634,6 @@
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="P20:P22"/>
-    <mergeCell ref="R20:R22"/>
     <mergeCell ref="T20:T22"/>
     <mergeCell ref="V20:V22"/>
     <mergeCell ref="X20:X22"/>
@@ -18664,6 +18653,8 @@
     <mergeCell ref="V12:V14"/>
     <mergeCell ref="X12:X14"/>
     <mergeCell ref="X24:X26"/>
+    <mergeCell ref="X48:X50"/>
+    <mergeCell ref="X44:X46"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="H26:H28"/>
@@ -18685,6 +18676,10 @@
     <mergeCell ref="J34:J36"/>
     <mergeCell ref="L34:L36"/>
     <mergeCell ref="L30:L32"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="V32:V34"/>
     <mergeCell ref="X32:X34"/>
     <mergeCell ref="Z27:Z50"/>
@@ -18706,23 +18701,6 @@
     <mergeCell ref="V40:V42"/>
     <mergeCell ref="X40:X42"/>
     <mergeCell ref="T48:T50"/>
-    <mergeCell ref="V48:V50"/>
-    <mergeCell ref="X48:X50"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="L46:L48"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="X56:X58"/>
     <mergeCell ref="D58:D60"/>
@@ -18741,6 +18719,12 @@
     <mergeCell ref="V44:V46"/>
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="F42:F44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="H38:H40"/>
     <mergeCell ref="Z52:Z60"/>
     <mergeCell ref="D54:D56"/>
     <mergeCell ref="F54:F56"/>
@@ -18759,6 +18743,12 @@
     <mergeCell ref="X52:X54"/>
     <mergeCell ref="P48:P50"/>
     <mergeCell ref="R48:R50"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="V48:V50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
